--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3702.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3702.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.375966931518293</v>
+        <v>0.8921194076538086</v>
       </c>
       <c r="B1">
-        <v>2.841642639650687</v>
+        <v>3.773932933807373</v>
       </c>
       <c r="C1">
-        <v>7.405443848266238</v>
+        <v>4.304264545440674</v>
       </c>
       <c r="D1">
-        <v>1.949178526786451</v>
+        <v>1.946406126022339</v>
       </c>
       <c r="E1">
-        <v>1.004067674044408</v>
+        <v>1.587233185768127</v>
       </c>
     </row>
   </sheetData>
